--- a/biology/Zoologie/Danio_perlé/Danio_perlé.xlsx
+++ b/biology/Zoologie/Danio_perlé/Danio_perlé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danio_perl%C3%A9</t>
+          <t>Danio_perlé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danio albolineatus
 Le Danio perlé (brachydanio albolineatus ou Danio albolineatus) ou danio arc-en-ciel est une espèce de poisson endémique d'Asie sur une vaste zone qui s'étend de Myanmar, au Laos, en Thaïlande et jusqu'à l'ile de Sumatra en Indonésie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danio_perl%C3%A9</t>
+          <t>Danio_perlé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom scientifique est Brachydanio alboneata. La première partie vient du [grec ancien] βραχύς (brakhús), signifiant « court », et de Dhani, un terme vernaculaire du Bengale pour les petits cyprinidés ressemblant à des vairons. La seconde est issue du latin albus, signifiant « blanc » et  de ineatus, signifiant 'ligné'[1].
-On peut aussi le trouvé sous les noms vernaculaires de Danio albo, Danio rosé ou Danio perlé arc-en-ciel[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom scientifique est Brachydanio alboneata. La première partie vient du [grec ancien] βραχύς (brakhús), signifiant « court », et de Dhani, un terme vernaculaire du Bengale pour les petits cyprinidés ressemblant à des vairons. La seconde est issue du latin albus, signifiant « blanc » et  de ineatus, signifiant 'ligné'.
+On peut aussi le trouvé sous les noms vernaculaires de Danio albo, Danio rosé ou Danio perlé arc-en-ciel.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Danio_perl%C3%A9</t>
+          <t>Danio_perlé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Danio perlé est un poisson fusiforme dont la forme rappelle celle de l'ablette[3], de couleur bleu ciel, avec des tendances rosâtres ou rougeâtre, accompagnées de deux bandes jaune-pâle ou brunes. Ses nageoiressont soit rougeâtre, soit jaune. Sa bouche est orientée vers le haut, et sa machoire supérieur possèdent une paire de barbillons. Il mesure environ 6 cm[4], et peut vivre deux ou trois ans.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Danio perlé est un poisson fusiforme dont la forme rappelle celle de l'ablette, de couleur bleu ciel, avec des tendances rosâtres ou rougeâtre, accompagnées de deux bandes jaune-pâle ou brunes. Ses nageoiressont soit rougeâtre, soit jaune. Sa bouche est orientée vers le haut, et sa machoire supérieur possèdent une paire de barbillons. Il mesure environ 6 cm, et peut vivre deux ou trois ans.
 La femelle est plus petite que le mâle, moins svelte, et ses couleurs sont plus ternes.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Danio_perl%C3%A9</t>
+          <t>Danio_perlé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est originaire d'Asie de sud est, on le trouve en Birmanie, au Laos, en Thaïlande et en Indonésie sur l'île de Sumatra. Il évolue plutôt à la surface des eaux  limpides de petits cours d'eau, et rivières, qui descendent des collines[5].Généralement, la végétation y est très importante et le fond est partiellement couvert  de gravier et éboulis.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est originaire d'Asie de sud est, on le trouve en Birmanie, au Laos, en Thaïlande et en Indonésie sur l'île de Sumatra. Il évolue plutôt à la surface des eaux  limpides de petits cours d'eau, et rivières, qui descendent des collines.Généralement, la végétation y est très importante et le fond est partiellement couvert  de gravier et éboulis.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Danio_perl%C3%A9</t>
+          <t>Danio_perlé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson très actif est un très bon nageur et un saute beaucoup. Il vit en banc d'une quinzaine d'individus.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Danio_perl%C3%A9</t>
+          <t>Danio_perlé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de la période de frai, les couleurs du mâle s'accentuent. Les alevins naissent en deux jours[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de la période de frai, les couleurs du mâle s'accentuent. Les alevins naissent en deux jours.
 </t>
         </is>
       </c>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Danio_perl%C3%A9</t>
+          <t>Danio_perlé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le danio perlé est omnivores, il se nourrit quasiment exclusivement d'insectes.
 </t>
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Danio_perl%C3%A9</t>
+          <t>Danio_perlé</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,9 +724,11 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un poisson apprécié en aquariophilie, et qui accepte la vie en aquarium. Il est conseillé de le mettre avec six à dix individus de son espèce, dans un aquarium bien planté et fermé (car il saute). Les paramètres recommandés sont: une température comprise 20° à 25°, un pH entre 6,5 et 8, un GH entre 5°d et 20° d[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un poisson apprécié en aquariophilie, et qui accepte la vie en aquarium. Il est conseillé de le mettre avec six à dix individus de son espèce, dans un aquarium bien planté et fermé (car il saute). Les paramètres recommandés sont: une température comprise 20° à 25°, un pH entre 6,5 et 8, un GH entre 5°d et 20° d.
 </t>
         </is>
       </c>
